--- a/src/main/java/export/Danh_sach_order.xlsx
+++ b/src/main/java/export/Danh_sach_order.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t/>
   </si>
@@ -128,7 +128,7 @@
     <t>Order 8</t>
   </si>
   <si>
-    <t>Delivery Location 8</t>
+    <t xml:space="preserve">Delivery </t>
   </si>
   <si>
     <t>Receive Location 8</t>
@@ -511,9 +511,11 @@
         <v>45370.0</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H12" s="0"/>
+        <v>24</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>0</v>
+      </c>
       <c r="I12" t="n" s="0">
         <v>30.399999618530273</v>
       </c>
@@ -521,7 +523,7 @@
         <v>200.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -601,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>45357.0</v>
+        <v>45392.0</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>15</v>
@@ -622,7 +624,7 @@
         <v>100.05000305175781</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -678,7 +680,7 @@
       </c>
       <c r="F17" s="0"/>
       <c r="G17" t="s" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>0</v>
@@ -690,7 +692,7 @@
         <v>3223.22998046875</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
